--- a/app/xxx/CC-147.xlsx
+++ b/app/xxx/CC-147.xlsx
@@ -385,7 +385,7 @@
         <xdr:cNvPr id="1025" name="J_ImgBooth" descr="T19qbGXf4XXXXkLBAS_010013">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -430,7 +430,7 @@
         <xdr:cNvPr id="1026" name="J_ImgBooth" descr="T1_1CrFbXgXXXXXXXX_!!0-item_pic">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -470,7 +470,7 @@
         <xdr:cNvPr id="4" name="J_ImgBooth" descr="T19qbGXf4XXXXkLBAS_010013">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -510,7 +510,7 @@
         <xdr:cNvPr id="5" name="J_ImgBooth" descr="T1_1CrFbXgXXXXXXXX_!!0-item_pic">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,7 +550,7 @@
         <xdr:cNvPr id="6" name="J_ImgBooth" descr="T19qbGXf4XXXXkLBAS_010013">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,7 +590,7 @@
         <xdr:cNvPr id="7" name="J_ImgBooth" descr="T1_1CrFbXgXXXXXXXX_!!0-item_pic">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -630,7 +630,7 @@
         <xdr:cNvPr id="8" name="J_ImgBooth" descr="T19qbGXf4XXXXkLBAS_010013">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -670,7 +670,7 @@
         <xdr:cNvPr id="9" name="J_ImgBooth" descr="T1_1CrFbXgXXXXXXXX_!!0-item_pic">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
